--- a/Updates.xlsx
+++ b/Updates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DyWorld\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E1FADFA-9097-42CD-9E2D-8B9E7EAF2168}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A552DD5-D470-485F-99A1-090D8FA39AD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="56">
   <si>
     <t>Version</t>
   </si>
@@ -190,6 +190,9 @@
   </si>
   <si>
     <t>2 weeks?</t>
+  </si>
+  <si>
+    <t>Loads of fixes and changes</t>
   </si>
 </sst>
 </file>
@@ -281,13 +284,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -576,7 +579,7 @@
   <dimension ref="A1:D37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -589,462 +592,464 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
     </row>
     <row r="2" spans="1:4" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="3" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C4" s="4" t="s">
+      <c r="B4" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D5" s="3" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C5" s="4" t="s">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D6" s="3" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C6" s="4" t="s">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D7" s="3" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C7" s="4" t="s">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D8" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C8" s="4" t="s">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D9" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C9" s="4" t="s">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D10" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C10" s="4" t="s">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D11" s="3" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D11" s="4"/>
-    </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D12" s="4"/>
+      <c r="B12" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" s="3"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D13" s="4"/>
+      <c r="B13" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13" s="3"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D14" s="4"/>
+      <c r="B14" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" s="3"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D15" s="4"/>
+      <c r="B15" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D15" s="3"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D16" s="4"/>
+      <c r="B16" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D16" s="3"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D17" s="4"/>
+      <c r="B17" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D17" s="3"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
+      <c r="A18" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B18" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D18" s="4"/>
+      <c r="B18" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D18" s="3"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
+      <c r="A19" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B19" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D19" s="4"/>
+      <c r="B19" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D19" s="3"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
+      <c r="A20" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D20" s="4"/>
+      <c r="B20" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D20" s="3"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
+      <c r="A21" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B21" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D21" s="4"/>
+      <c r="B21" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D21" s="3"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
+      <c r="A22" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B22" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D22" s="4"/>
+      <c r="B22" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D22" s="3"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="s">
+      <c r="A23" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B23" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D23" s="4"/>
+      <c r="B23" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D23" s="3"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="s">
+      <c r="A24" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B24" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D24" s="4"/>
+      <c r="B24" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D24" s="3"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="4" t="s">
+      <c r="A25" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B25" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D25" s="4"/>
+      <c r="B25" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D25" s="3"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="4" t="s">
+      <c r="A26" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B26" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D26" s="4"/>
+      <c r="B26" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D26" s="3"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="4" t="s">
+      <c r="A27" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B27" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D27" s="4"/>
+      <c r="B27" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D27" s="3"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="4" t="s">
+      <c r="A28" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B28" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D28" s="4"/>
+      <c r="B28" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D28" s="3"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="4" t="s">
+      <c r="A29" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B29" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D29" s="4"/>
+      <c r="B29" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D29" s="3"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="4" t="s">
+      <c r="A30" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B30" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D30" s="4"/>
+      <c r="B30" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D30" s="3"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="4" t="s">
+      <c r="A31" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B31" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D31" s="4"/>
+      <c r="B31" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D31" s="3"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="4" t="s">
+      <c r="A32" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B32" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D32" s="4"/>
+      <c r="B32" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D32" s="3"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="4" t="s">
+      <c r="A33" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B33" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D33" s="4"/>
+      <c r="B33" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D33" s="3"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="4" t="s">
+      <c r="A34" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B34" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D34" s="4"/>
+      <c r="B34" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D34" s="3"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="4" t="s">
+      <c r="A35" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B35" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D35" s="4"/>
+      <c r="B35" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D35" s="3"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="4" t="s">
+      <c r="A36" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B36" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D36" s="4"/>
+      <c r="B36" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D36" s="3"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="4" t="s">
+      <c r="A37" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B37" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D37" s="4"/>
+      <c r="B37" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D37" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Updates.xlsx
+++ b/Updates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DyWorld\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A552DD5-D470-485F-99A1-090D8FA39AD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C31C4061-8C17-4F25-82FD-B6EDB0EC5737}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="57">
   <si>
     <t>Version</t>
   </si>
@@ -156,9 +156,6 @@
     <t>???</t>
   </si>
   <si>
-    <t>2-3 weeks</t>
-  </si>
-  <si>
     <t>1 week</t>
   </si>
   <si>
@@ -193,6 +190,12 @@
   </si>
   <si>
     <t>Loads of fixes and changes</t>
+  </si>
+  <si>
+    <t>Technology, science packs and power</t>
+  </si>
+  <si>
+    <t>25th November 2023</t>
   </si>
 </sst>
 </file>
@@ -579,7 +582,7 @@
   <dimension ref="A1:D37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -624,7 +627,7 @@
         <v>40</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -632,13 +635,13 @@
         <v>6</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>44</v>
+        <v>56</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>43</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -652,7 +655,7 @@
         <v>43</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -663,10 +666,10 @@
         <v>42</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -677,10 +680,10 @@
         <v>42</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -691,10 +694,10 @@
         <v>42</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -705,10 +708,10 @@
         <v>42</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -719,10 +722,10 @@
         <v>42</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -733,10 +736,10 @@
         <v>42</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -749,7 +752,9 @@
       <c r="C12" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D12" s="3"/>
+      <c r="D12" s="3" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
